--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D8004A-1C96-2942-81B8-13ADF87DC0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF0C1-46BA-044F-B6E5-36BCA6BB2708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="560" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
   <sheets>
     <sheet name="todo list(day)" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="464">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1747,6 +1747,115 @@
   </si>
   <si>
     <t>TaskFinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management Self Section 중 layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttkmwStopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RootLim work out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 그렇게 많이 쳐먹냐….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 오랜만에 한거치고 좋았는데, 이것저것 먹은게 너무 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnGoing,
+TaskFinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskStopped,
+TimeTracked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make root lim work out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdeaCreated:RootLim:비서가 일정조정 및 외부 만남(회의) 등 정리하게하기. 그리고 한 User당 한 Secretary를 둬야 기록하기 편한듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RootSecretaryOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskFinished:RootLimSecretary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junk sound make beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기다 뭐쓰는거였지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동 굿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskStarted,
+TaskFinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make one beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JunkSoundFocused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JunkSoundReady? Or RootLimWashFinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeAnotherBeatWithFLStudio(JunkSoundMakingBeatFinished)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskStarted,
+TaskFinished,
+TimeTracked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timetracked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인지업 슬랙 들어가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC(DocumentTation?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1805,7 +1914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,6 +1946,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2193,8 +2305,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:V59" totalsRowShown="0" dataDxfId="43">
-  <autoFilter ref="A3:V59" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:V62" totalsRowShown="0" dataDxfId="43">
+  <autoFilter ref="A3:V62" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="41"/>
@@ -2591,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE457DB-F3F7-A040-8FE3-49840E1A123B}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="117" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2606,6 +2718,8 @@
     <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="29.7109375" customWidth="1"/>
     <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="76">
@@ -2838,7 +2952,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="95">
+    <row r="5" spans="1:19" ht="95" hidden="1">
       <c r="A5" s="8">
         <v>44378</v>
       </c>
@@ -3689,28 +3803,65 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="38" hidden="1">
       <c r="A20" s="4">
         <v>44378</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="P20" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3728,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:V59"/>
+  <dimension ref="A3:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="91" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView topLeftCell="A56" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3752,7 +3903,7 @@
     <col min="17" max="17" width="71.140625" customWidth="1"/>
     <col min="18" max="18" width="49.5703125" customWidth="1"/>
     <col min="19" max="19" width="46" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5640,7 +5791,7 @@
       </c>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="171">
+    <row r="43" spans="1:22" ht="76">
       <c r="A43" s="4">
         <v>44351</v>
       </c>
@@ -5742,7 +5893,7 @@
       </c>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="266">
+    <row r="45" spans="1:22" ht="133">
       <c r="A45" s="4">
         <v>44351</v>
       </c>
@@ -6024,7 +6175,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="114">
+    <row r="52" spans="1:22" ht="95">
       <c r="A52" s="4">
         <v>44351</v>
       </c>
@@ -6264,7 +6415,7 @@
       </c>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="171">
+    <row r="56" spans="1:22" ht="76">
       <c r="A56" s="4">
         <v>44351</v>
       </c>
@@ -6448,21 +6599,25 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2" t="s">
-        <v>168</v>
+        <v>443</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="19">
+    <row r="59" spans="1:22" ht="38">
       <c r="A59" s="4">
         <v>44378</v>
       </c>
       <c r="B59" s="10">
         <v>0.79999999999999993</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="10"/>
+      <c r="C59" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.9375</v>
+      </c>
       <c r="E59" s="10" t="s">
         <v>164</v>
       </c>
@@ -6478,19 +6633,217 @@
       <c r="I59" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O59" s="2">
+        <v>8</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
+      <c r="U59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="38">
+      <c r="A60" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O60" s="2">
+        <v>10</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="T60" t="s">
+        <v>446</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="57">
+      <c r="A61" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B61" s="10">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D61" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="O61" s="2">
+        <v>8</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="19">
+      <c r="A62" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B62" s="10">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF0C1-46BA-044F-B6E5-36BCA6BB2708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A517841-B6E3-6B41-866A-7D70FC8DFA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
   <sheets>
     <sheet name="todo list(day)" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="480">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?(아직 뭐라해야할지 모르겠음 - Category?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Field(분야)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1030,18 +1026,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BottleNeckOnGoing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인스타그램의 정책 때문에 만들지 못하고 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구글의 정책 때문에 비즈니스계정으로는 만들지 못하는중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인스타그램 api 리서치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,14 +1267,6 @@
   </si>
   <si>
     <t>UserNickname(유저에게 보이는, 불리는 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NickName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserNickName(추후 UserName으로 변경 필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1386,11 +1366,6 @@
     <t xml:space="preserve">WorkFinished,
 TimeTracked,
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>? 아직 뭐라고 해야할지 안정함.
-분류? 상태? TimeCategory?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1792,10 +1767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RootSecretaryOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TaskFinished:RootLimSecretary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1856,6 +1827,99 @@
   </si>
   <si>
     <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName(추후 UserName으로 변경 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dynamic side bar </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 side bar에서 scroll은 되지만, 위치가 고정됨. Dynamic하게 만들면 좋을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend Develop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottleNeckOnGing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggeredBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사용자 배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RootLimSecretaryOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RootLimWakedUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TtkmdDoTaskCommand(WashFinished)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskStarted,
+TaskFinishehd,
+TimeTracked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualTimeCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do develop task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔수없는(이동) + physical</t>
+  </si>
+  <si>
+    <t>어쩔수없는(이동) + physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk + @(과일 먹기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work(비서 입장. 물론 너무 많이 쉬게하면 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedTimeCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chillvibe:createsong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make out times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1897,11 +1961,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1914,7 +1987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,12 +2024,84 @@
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="66">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2066,9 +2211,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2081,69 +2223,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2266,8 +2345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23060E20-678A-D44B-8FB2-EFDDABA060DE}" name="표2" displayName="표2" ref="A1:S20" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
-  <autoFilter ref="A1:S20" xr:uid="{33C0A7DA-87DE-9D46-8CF3-490BDD3DB9AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23060E20-678A-D44B-8FB2-EFDDABA060DE}" name="표2" displayName="표2" ref="A1:S21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:S21" xr:uid="{33C0A7DA-87DE-9D46-8CF3-490BDD3DB9AA}">
     <filterColumn colId="18">
       <filters>
         <filter val="Not Started"/>
@@ -2280,63 +2359,64 @@
     <sortCondition descending="1" ref="B1:B6"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="7" xr3:uid="{57387478-1350-F842-813B-2BF2F5B23DE6}" name="Date" dataDxfId="62"/>
-    <tableColumn id="1" xr3:uid="{B5429F5E-7022-6D4A-A37D-1C28F1EA521E}" name="IsUrgent" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{827872FC-9F4C-2A43-9A78-046958637972}" name="User Name" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{AFC37644-4350-EF4D-B8E6-CEFA4188367B}" name="Account Name" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{E0AA2CCD-768C-934C-9316-FE07D5F09949}" name="Name" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{B4DF4052-E5AF-0942-B2D1-DFD1CA0CADA0}" name="Description" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{33D258E7-6C53-E940-BF85-F73D8C2A070C}" name="ImportanceLevel" dataDxfId="56"/>
-    <tableColumn id="16" xr3:uid="{75D8B0AD-0A67-1B4C-A1DC-EEB05726F3F7}" name="DifficultyLevel" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{87F01D01-12DC-D04A-AA44-6BD8860F8699}" name="?(아직 뭐라해야할지 모르겠음 - Category?" dataDxfId="54"/>
-    <tableColumn id="18" xr3:uid="{46B51654-E8F2-2048-88CD-1CAE3461E804}" name="크기(규모)에 따른 분류" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{DD553DA3-7F96-0B4A-8F72-5F6A507AD6D9}" name="Field(분야)" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{3F37B9A6-A5EB-274F-B764-E89336FF0A73}" name="분류 - Category?" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{88C14E53-7F6A-5A47-B3BD-15394F3C30FA}" name="IsBottleNeck" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{03BE0425-38AA-5345-A1CF-62786F9A9B7D}" name="HasBottleNeckOnStart only for this task" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{A560DC71-99DF-DF45-BF3B-2EF731E77420}" name="BottleNeckOnStart" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{D95C2186-CD71-054D-94E5-34174AA0A238}" name="BottleNeckOnGoing" dataDxfId="47" dataCellStyle="하이퍼링크"/>
-    <tableColumn id="19" xr3:uid="{66A3169B-8CF1-934F-8931-282AD2BEB321}" name="CanIncreaseWorkEfficiency" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{2D11400B-8B5E-A247-82F0-CB8EFE2FCCDC}" name="?(아직 이름을 못정함)" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{0F71AF5F-61E0-B949-9259-B1A35556FD39}" name="Status" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{57387478-1350-F842-813B-2BF2F5B23DE6}" name="Date" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{B5429F5E-7022-6D4A-A37D-1C28F1EA521E}" name="IsUrgent" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{827872FC-9F4C-2A43-9A78-046958637972}" name="User Name" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{AFC37644-4350-EF4D-B8E6-CEFA4188367B}" name="Account Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E0AA2CCD-768C-934C-9316-FE07D5F09949}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B4DF4052-E5AF-0942-B2D1-DFD1CA0CADA0}" name="Description" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{33D258E7-6C53-E940-BF85-F73D8C2A070C}" name="ImportanceLevel" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{3FBE3180-15AA-2445-972B-27900647C121}" name="TriggeredBy" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{75D8B0AD-0A67-1B4C-A1DC-EEB05726F3F7}" name="DifficultyLevel" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{46B51654-E8F2-2048-88CD-1CAE3461E804}" name="크기(규모)에 따른 분류" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{DD553DA3-7F96-0B4A-8F72-5F6A507AD6D9}" name="Field(분야)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3F37B9A6-A5EB-274F-B764-E89336FF0A73}" name="분류 - Category?" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{88C14E53-7F6A-5A47-B3BD-15394F3C30FA}" name="IsBottleNeck" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{03BE0425-38AA-5345-A1CF-62786F9A9B7D}" name="HasBottleNeckOnStart only for this task" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{A560DC71-99DF-DF45-BF3B-2EF731E77420}" name="BottleNeckOnStart" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{F0EBB895-B0CC-474F-9A08-BF7E5086DC86}" name="BottleNeckOnGing" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{66A3169B-8CF1-934F-8931-282AD2BEB321}" name="CanIncreaseWorkEfficiency" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{2D11400B-8B5E-A247-82F0-CB8EFE2FCCDC}" name="?(아직 이름을 못정함)" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{0F71AF5F-61E0-B949-9259-B1A35556FD39}" name="Status" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:V62" totalsRowShown="0" dataDxfId="43">
-  <autoFilter ref="A3:V62" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Account Name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{A10300D8-FB89-BA44-921B-09BB69FB7930}" name="? 아직 뭐라고 해야할지 안정함._x000a_분류? 상태? TimeCategory?" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="31"/>
-    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="28"/>
-    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:W68" totalsRowShown="0" dataDxfId="65">
+  <autoFilter ref="A3:W68" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Account Name" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="57"/>
+    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="55"/>
+    <tableColumn id="24" xr3:uid="{5896052E-6D0F-7A43-9144-A18A3CF6BD48}" name="ActualTimeCategory" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="53"/>
+    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="51"/>
+    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="50"/>
+    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:R16" xr:uid="{34963C48-FACA-F84A-8A57-EB8B000E2FB1}">
     <filterColumn colId="1">
       <filters>
@@ -2351,24 +2431,24 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2389,9 +2469,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5BF5D8DA-BB9C-8E4F-9728-B5B3C50983BC}" name="표5" displayName="표5" ref="A1:L17" totalsRowShown="0">
   <autoFilter ref="A1:L17" xr:uid="{8C4E2D83-616C-424E-8DE5-B4AEF9BC6EA6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{4271BE0E-3D4C-6149-B2C4-C681DA278899}" name="NickName"/>
-    <tableColumn id="3" xr3:uid="{3618F7AD-B21D-0641-AFC6-F2E6ABDD3261}" name="UserNickName(추후 UserName으로 변경 필요)"/>
+    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4271BE0E-3D4C-6149-B2C4-C681DA278899}" name="CharacterName"/>
+    <tableColumn id="3" xr3:uid="{3618F7AD-B21D-0641-AFC6-F2E6ABDD3261}" name="UserName(추후 UserName으로 변경 필요)"/>
     <tableColumn id="13" xr3:uid="{0CADD70A-516C-8D49-A872-A367F77ADC07}" name="HighLevelJob"/>
     <tableColumn id="6" xr3:uid="{6820F6DA-BAFD-D246-BAFD-5DA98543C1B9}" name="Job"/>
     <tableColumn id="4" xr3:uid="{18258901-9992-5C4D-9D4A-699920E1BCA7}" name="JobDescription"/>
@@ -2703,16 +2783,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE457DB-F3F7-A040-8FE3-49840E1A123B}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A3" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
@@ -2722,7 +2803,7 @@
     <col min="17" max="17" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="76">
+    <row r="1" spans="1:19" ht="38">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
@@ -2745,37 +2826,37 @@
         <v>173</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>263</v>
+        <v>462</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>149</v>
@@ -2795,22 +2876,20 @@
         <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>120</v>
@@ -2826,13 +2905,13 @@
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>169</v>
@@ -2858,19 +2937,17 @@
         <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>124</v>
@@ -2883,13 +2960,13 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>168</v>
@@ -2915,14 +2992,12 @@
         <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>120</v>
@@ -2940,19 +3015,19 @@
         <v>126</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="95" hidden="1">
+    <row r="5" spans="1:19" ht="57" hidden="1">
       <c r="A5" s="8">
         <v>44378</v>
       </c>
@@ -2970,16 +3045,14 @@
         <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>120</v>
@@ -2994,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>167</v>
@@ -3029,14 +3102,12 @@
         <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>120</v>
@@ -3052,19 +3123,19 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="38">
+    <row r="7" spans="1:19" ht="19">
       <c r="A7" s="8">
         <v>44378</v>
       </c>
@@ -3078,28 +3149,26 @@
         <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>0</v>
@@ -3109,19 +3178,19 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19">
       <c r="A8" s="8">
         <v>44378</v>
       </c>
@@ -3132,31 +3201,29 @@
         <v>164</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>0</v>
@@ -3166,19 +3233,19 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19">
       <c r="A9" s="8">
         <v>44378</v>
       </c>
@@ -3192,28 +3259,26 @@
         <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>0</v>
@@ -3223,19 +3288,19 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19">
       <c r="A10" s="8">
         <v>44378</v>
       </c>
@@ -3249,28 +3314,26 @@
         <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>0</v>
@@ -3280,19 +3343,19 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="19">
       <c r="A11" s="8">
         <v>44378</v>
       </c>
@@ -3306,28 +3369,26 @@
         <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>0</v>
@@ -3337,19 +3398,19 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19">
       <c r="A12" s="8">
         <v>44378</v>
       </c>
@@ -3363,28 +3424,26 @@
         <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>0</v>
@@ -3394,19 +3453,19 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19">
       <c r="A13" s="8">
         <v>44378</v>
       </c>
@@ -3420,28 +3479,26 @@
         <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>0</v>
@@ -3451,19 +3508,19 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19">
       <c r="A14" s="8">
         <v>44378</v>
       </c>
@@ -3477,28 +3534,26 @@
         <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>0</v>
@@ -3508,16 +3563,16 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="38">
@@ -3534,28 +3589,26 @@
         <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>0</v>
@@ -3565,19 +3618,19 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="38">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19">
       <c r="A16" s="8">
         <v>44378</v>
       </c>
@@ -3591,28 +3644,26 @@
         <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>0</v>
@@ -3622,19 +3673,19 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="38" hidden="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19" hidden="1">
       <c r="A17" s="4">
         <v>44350</v>
       </c>
@@ -3648,28 +3699,26 @@
         <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>0</v>
@@ -3678,14 +3727,12 @@
         <v>0</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>167</v>
@@ -3705,28 +3752,26 @@
         <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>0</v>
@@ -3735,19 +3780,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
         <v>66</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="38">
-      <c r="A19" s="4">
+      <c r="A19" s="8">
         <v>44378</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3757,31 +3802,29 @@
         <v>164</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>432</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>122</v>
+        <v>426</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>66</v>
@@ -3791,16 +3834,16 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="38" hidden="1">
@@ -3814,31 +3857,29 @@
         <v>164</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>0</v>
@@ -3847,21 +3888,114 @@
         <v>0</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="9" t="s">
-        <v>386</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:19" ht="133">
+      <c r="A21" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="15:15">
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3879,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:V62"/>
+  <dimension ref="A3:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3893,29 +4027,28 @@
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="43.28515625" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" customWidth="1"/>
-    <col min="16" max="16" width="37" customWidth="1"/>
-    <col min="17" max="17" width="71.140625" customWidth="1"/>
-    <col min="18" max="18" width="49.5703125" customWidth="1"/>
-    <col min="19" max="19" width="46" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="15" max="15" width="37" customWidth="1"/>
+    <col min="16" max="16" width="71.140625" customWidth="1"/>
+    <col min="17" max="17" width="49.5703125" customWidth="1"/>
+    <col min="18" max="18" width="46" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" ht="189" customHeight="1">
+    <row r="3" spans="1:23" ht="189" customHeight="1">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
@@ -3930,52 +4063,55 @@
         <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>353</v>
+        <v>211</v>
+      </c>
+      <c r="I3" t="s">
+        <v>477</v>
       </c>
       <c r="J3" t="s">
         <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L3" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="M3" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="N3" t="s">
-        <v>367</v>
-      </c>
-      <c r="O3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="R3" t="s">
+        <v>407</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S3" t="s">
         <v>132</v>
       </c>
-      <c r="S3" t="s">
-        <v>361</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="U3" t="s">
-        <v>410</v>
+      <c r="T3" t="s">
+        <v>355</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="V3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="95">
+        <v>404</v>
+      </c>
+      <c r="W3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="171">
       <c r="A4" s="4">
         <v>44348</v>
       </c>
@@ -4008,22 +4144,23 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
         <v>8</v>
       </c>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="57">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="76">
       <c r="A5" s="4">
         <v>44348</v>
       </c>
@@ -4056,20 +4193,21 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
         <v>10</v>
       </c>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="57">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="76">
       <c r="A6" s="4">
         <v>44348</v>
       </c>
@@ -4102,20 +4240,21 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
         <v>10</v>
       </c>
-      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="76">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="95">
       <c r="A7" s="4">
         <v>44349</v>
       </c>
@@ -4133,7 +4272,7 @@
         <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -4148,22 +4287,23 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
         <v>10</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" ht="57">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="76">
       <c r="A8" s="4">
         <v>44348</v>
       </c>
@@ -4196,20 +4336,21 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
         <v>10</v>
       </c>
-      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" ht="57">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="76">
       <c r="A9" s="4">
         <v>44348</v>
       </c>
@@ -4240,22 +4381,23 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="57">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="76">
       <c r="A10" s="4">
         <v>44348</v>
       </c>
@@ -4286,22 +4428,23 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
         <v>8</v>
       </c>
-      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="38">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="76">
       <c r="A11" s="4">
         <v>44349</v>
       </c>
@@ -4334,22 +4477,23 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
         <v>9</v>
       </c>
-      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="57">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="76">
       <c r="A12" s="4">
         <v>44348</v>
       </c>
@@ -4382,20 +4526,21 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
         <v>10</v>
       </c>
-      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="19">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" ht="19">
       <c r="A13" s="4">
         <v>44349</v>
       </c>
@@ -4430,12 +4575,13 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="57">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="76">
       <c r="A14" s="4">
         <v>44349</v>
       </c>
@@ -4453,14 +4599,14 @@
         <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>153</v>
@@ -4468,22 +4614,23 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
         <v>9</v>
       </c>
-      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="T14" s="2"/>
-      <c r="U14" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="57">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="76">
       <c r="A15" s="4">
         <v>44349</v>
       </c>
@@ -4501,14 +4648,14 @@
         <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" s="2">
         <v>10</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>145</v>
@@ -4516,20 +4663,21 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
         <v>10</v>
       </c>
-      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="38">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="38">
       <c r="A16" s="4">
         <v>44349</v>
       </c>
@@ -4547,14 +4695,14 @@
         <v>115</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>156</v>
@@ -4562,24 +4710,25 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2">
         <v>9</v>
       </c>
-      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" ht="76">
+      <c r="A17" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" ht="57">
-      <c r="A17" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="B17" s="10">
         <v>0.66319444444444442</v>
@@ -4595,14 +4744,14 @@
         <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>145</v>
@@ -4610,20 +4759,21 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" ht="57">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" ht="76">
       <c r="A18" s="4">
         <v>44349</v>
       </c>
@@ -4641,37 +4791,38 @@
         <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2">
         <v>9</v>
       </c>
-      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="S18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" ht="57">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" ht="76">
       <c r="A19" s="4">
         <v>44349</v>
       </c>
@@ -4683,43 +4834,44 @@
         <v>0.77569444444444446</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2">
         <v>6</v>
       </c>
-      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="T19" s="2"/>
-      <c r="U19" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" ht="57">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" ht="76">
       <c r="A20" s="4">
         <v>44349</v>
       </c>
@@ -4737,37 +4889,38 @@
         <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
         <v>8</v>
       </c>
-      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="T20" s="2"/>
-      <c r="U20" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" ht="57">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" ht="76">
       <c r="A21" s="4">
         <v>44349</v>
       </c>
@@ -4795,27 +4948,28 @@
         <v>123</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2">
         <v>8</v>
       </c>
-      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="S21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" ht="57">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" ht="76">
       <c r="A22" s="4">
         <v>44349</v>
       </c>
@@ -4833,14 +4987,14 @@
         <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>142</v>
@@ -4848,22 +5002,23 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2">
         <v>9</v>
       </c>
-      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="T22" s="2"/>
-      <c r="U22" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" ht="57">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" ht="76">
       <c r="A23" s="4">
         <v>44349</v>
       </c>
@@ -4881,35 +5036,36 @@
         <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2">
         <v>10</v>
       </c>
-      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" ht="19">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" ht="19">
       <c r="A24" s="4">
         <v>44349</v>
       </c>
@@ -4927,14 +5083,14 @@
         <v>81</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>143</v>
@@ -4942,22 +5098,23 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
         <v>8</v>
       </c>
-      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="S24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4980,8 +5137,9 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" ht="57">
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" ht="76">
       <c r="A26" s="4">
         <v>44350</v>
       </c>
@@ -4999,14 +5157,14 @@
         <v>115</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>163</v>
@@ -5014,20 +5172,21 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2">
         <v>9</v>
       </c>
-      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" ht="57">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" ht="95">
       <c r="A27" s="4">
         <v>44350</v>
       </c>
@@ -5045,14 +5204,14 @@
         <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>145</v>
@@ -5060,22 +5219,23 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
         <v>8</v>
       </c>
-      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="S27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="T27" s="2"/>
-      <c r="U27" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" ht="57">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" ht="76">
       <c r="A28" s="4">
         <v>44350</v>
       </c>
@@ -5093,14 +5253,14 @@
         <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>163</v>
@@ -5108,22 +5268,23 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2">
         <v>9</v>
       </c>
-      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="S28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="T28" s="2"/>
-      <c r="U28" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" ht="57">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" ht="76">
       <c r="A29" s="4">
         <v>44350</v>
       </c>
@@ -5141,37 +5302,38 @@
         <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2">
         <v>5</v>
       </c>
-      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" t="s">
-        <v>250</v>
-      </c>
-      <c r="S29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" t="s">
+        <v>249</v>
+      </c>
       <c r="T29" s="2"/>
-      <c r="U29" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" ht="57">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" ht="76">
       <c r="A30" s="4">
         <v>44350</v>
       </c>
@@ -5189,14 +5351,14 @@
         <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>145</v>
@@ -5204,22 +5366,23 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2">
         <v>5</v>
       </c>
-      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="T30" s="2"/>
-      <c r="U30" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" ht="57">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" ht="76">
       <c r="A31" s="4">
         <v>44350</v>
       </c>
@@ -5237,37 +5400,38 @@
         <v>115</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2">
         <v>9</v>
       </c>
-      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="S31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="T31" s="2"/>
-      <c r="U31" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" ht="76">
+      <c r="U31" s="2"/>
+      <c r="V31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" ht="76">
       <c r="A32" s="4">
         <v>44350</v>
       </c>
@@ -5285,37 +5449,38 @@
         <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
         <v>10</v>
       </c>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="S32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="T32" s="2"/>
-      <c r="U32" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:22" ht="57">
+      <c r="U32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" ht="76">
       <c r="A33" s="4">
         <v>44350</v>
       </c>
@@ -5333,14 +5498,14 @@
         <v>115</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>141</v>
@@ -5348,22 +5513,23 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2">
         <v>8</v>
       </c>
-      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="S33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="T33" s="2"/>
-      <c r="U33" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" ht="57">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" ht="76">
       <c r="A34" s="4">
         <v>44350</v>
       </c>
@@ -5381,37 +5547,38 @@
         <v>115</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2">
         <v>10</v>
       </c>
-      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="S34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="T34" s="2"/>
-      <c r="U34" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:22" ht="57">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" ht="76">
       <c r="A35" s="4">
         <v>44350</v>
       </c>
@@ -5429,14 +5596,14 @@
         <v>115</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>163</v>
@@ -5444,22 +5611,23 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2">
         <v>6</v>
       </c>
-      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="S35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="T35" s="2"/>
-      <c r="U35" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" ht="57">
+      <c r="U35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" ht="76">
       <c r="A36" s="4">
         <v>44350</v>
       </c>
@@ -5477,37 +5645,38 @@
         <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2">
         <v>10</v>
       </c>
-      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="S36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="T36" s="2"/>
-      <c r="U36" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:22" ht="57">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="76">
       <c r="A37" s="4">
         <v>44350</v>
       </c>
@@ -5525,35 +5694,36 @@
         <v>81</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2">
         <v>10</v>
       </c>
-      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:22" ht="57">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="76">
       <c r="A38" s="4">
         <v>44350</v>
       </c>
@@ -5573,37 +5743,38 @@
         <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2">
         <v>9</v>
       </c>
-      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="S38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="T38" s="2"/>
-      <c r="U38" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:22" ht="57">
+      <c r="U38" s="2"/>
+      <c r="V38" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" ht="76">
       <c r="A39" s="4">
         <v>44350</v>
       </c>
@@ -5620,36 +5791,37 @@
         <v>164</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
         <v>10</v>
       </c>
-      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:22" ht="57">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" ht="76">
       <c r="A40" s="4">
         <v>44350</v>
       </c>
@@ -5669,14 +5841,14 @@
         <v>115</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>156</v>
@@ -5684,20 +5856,21 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
         <v>10</v>
       </c>
-      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" ht="57">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" ht="76">
       <c r="A41" s="4">
         <v>44350</v>
       </c>
@@ -5714,10 +5887,10 @@
         <v>164</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>143</v>
@@ -5730,20 +5903,21 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2">
         <v>8</v>
       </c>
-      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" ht="57">
+      <c r="U41" s="2"/>
+      <c r="V41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" ht="76">
       <c r="A42" s="4">
         <v>44350</v>
       </c>
@@ -5763,35 +5937,36 @@
         <v>115</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2">
         <v>10</v>
       </c>
-      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" ht="76">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" ht="171">
       <c r="A43" s="4">
         <v>44351</v>
       </c>
@@ -5811,39 +5986,40 @@
         <v>115</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="T43" s="2"/>
       <c r="U43" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="57">
+        <v>348</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" ht="95">
       <c r="A44" s="4">
         <v>44351</v>
       </c>
@@ -5863,37 +6039,38 @@
         <v>115</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>141</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2">
         <v>9</v>
       </c>
-      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="S44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="T44" s="2"/>
-      <c r="U44" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="133">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" ht="266">
       <c r="A45" s="4">
         <v>44351</v>
       </c>
@@ -5913,7 +6090,7 @@
         <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>141</v>
@@ -5922,32 +6099,33 @@
         <v>122</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2">
         <v>3</v>
       </c>
-      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2" t="s">
-        <v>362</v>
-      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="T45" s="2"/>
       <c r="U45" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" ht="19">
+        <v>356</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" ht="19">
       <c r="A46" s="4">
         <v>44351</v>
       </c>
@@ -5967,14 +6145,14 @@
         <v>115</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -5988,8 +6166,9 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" ht="19">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:23" ht="19">
       <c r="A47" s="4">
         <v>44351</v>
       </c>
@@ -6009,7 +6188,7 @@
         <v>115</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -6026,8 +6205,9 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" ht="112" customHeight="1">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" ht="112" customHeight="1">
       <c r="A48" s="4">
         <v>44351</v>
       </c>
@@ -6047,13 +6227,15 @@
         <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6064,8 +6246,9 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" ht="19">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" ht="19">
       <c r="A49" s="4">
         <v>44351</v>
       </c>
@@ -6085,7 +6268,7 @@
         <v>115</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -6102,8 +6285,9 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" ht="19">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="1:23" ht="19">
       <c r="A50" s="4">
         <v>44351</v>
       </c>
@@ -6119,7 +6303,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -6136,8 +6320,9 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" ht="19">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" ht="19">
       <c r="A51" s="4">
         <v>44351</v>
       </c>
@@ -6157,7 +6342,7 @@
         <v>115</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -6174,8 +6359,9 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" ht="95">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23" ht="114">
       <c r="A52" s="4">
         <v>44351</v>
       </c>
@@ -6192,10 +6378,10 @@
         <v>164</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>141</v>
@@ -6204,41 +6390,42 @@
         <v>122</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="O52" s="2">
+        <v>345</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P52" s="2">
         <v>10</v>
       </c>
-      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="S52" s="2"/>
       <c r="T52" s="2" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="1:22" ht="133">
+        <v>362</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" ht="133">
       <c r="A53" s="4">
         <v>44351</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C53" s="4">
         <v>44351</v>
@@ -6250,50 +6437,51 @@
         <v>164</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>163</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P53" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V53" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="O53" s="2">
-        <v>10</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="1:22" ht="38">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="1:23" ht="57">
       <c r="A54" s="4">
         <v>44351</v>
       </c>
@@ -6313,7 +6501,7 @@
         <v>115</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>163</v>
@@ -6322,38 +6510,39 @@
         <v>123</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O54" s="2">
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P54" s="2">
         <v>10</v>
       </c>
-      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="1:22" ht="95">
+        <v>380</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="1:23" ht="95">
       <c r="A55" s="4">
         <v>44351</v>
       </c>
@@ -6370,120 +6559,122 @@
         <v>164</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J55" s="2" t="s">
+      <c r="U55" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2">
-        <v>10</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="1:22" ht="76">
+      <c r="V55" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" ht="171">
       <c r="A56" s="4">
         <v>44351</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C56" s="4">
         <v>44351</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="P56" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="V56" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="W56" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="O56" s="2">
-        <v>11</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="19">
+    </row>
+    <row r="57" spans="1:23" ht="38">
       <c r="A57" s="4">
         <v>44351</v>
       </c>
@@ -6500,52 +6691,53 @@
         <v>164</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P57" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="O57" s="2">
-        <v>5</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="T57" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="1:22" ht="95">
+        <v>380</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" ht="76">
       <c r="A58" s="4">
         <v>44351</v>
       </c>
@@ -6562,50 +6754,51 @@
         <v>164</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="O58" s="2">
+        <v>396</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="P58" s="2">
         <v>10</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="R58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2" t="s">
-        <v>443</v>
-      </c>
+      <c r="U58" s="2"/>
       <c r="V58" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="38">
+      <c r="W58" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="57">
       <c r="A59" s="4">
         <v>44378</v>
       </c>
@@ -6625,53 +6818,54 @@
         <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="P59" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="O59" s="2">
-        <v>8</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="38">
+      <c r="W59" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="38">
       <c r="A60" s="4">
         <v>44378</v>
       </c>
@@ -6688,58 +6882,59 @@
         <v>164</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P60" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S60" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O60" s="2">
-        <v>10</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="T60" t="s">
+      <c r="T60" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U60" t="s">
+        <v>440</v>
+      </c>
+      <c r="V60" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="57">
+      <c r="W60" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="57">
       <c r="A61" s="4">
         <v>44378</v>
       </c>
@@ -6759,53 +6954,54 @@
         <v>105</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>455</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="O61" s="2">
+        <v>449</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="P61" s="2">
         <v>8</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="19">
+        <v>451</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="76">
       <c r="A62" s="4">
         <v>44379</v>
       </c>
@@ -6815,35 +7011,394 @@
       <c r="C62" s="4">
         <v>44379</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="10">
+        <v>0.54722222222222217</v>
+      </c>
       <c r="E62" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N62" t="s">
+        <v>466</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="P62" s="2">
+        <v>10</v>
+      </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="19">
+      <c r="A63" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B63" s="10">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="19">
+      <c r="A64" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B64" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="38">
+      <c r="A65" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B65" s="10">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="19">
+      <c r="A66" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B66" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="C66" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="P66" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="19">
+      <c r="A67" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B67" s="10">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="1:23" ht="19">
+      <c r="A68" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B68" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6884,13 +7439,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="57">
       <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>171</v>
@@ -6902,40 +7457,40 @@
         <v>149</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="152" hidden="1">
@@ -6946,7 +7501,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -6990,7 +7545,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -7040,7 +7595,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -7053,7 +7608,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
@@ -7061,7 +7616,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>31</v>
@@ -7088,7 +7643,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -7101,7 +7656,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -7136,7 +7691,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -7149,7 +7704,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>65</v>
@@ -7182,7 +7737,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -7195,7 +7750,7 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -7230,7 +7785,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -7243,7 +7798,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -7278,7 +7833,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -7291,7 +7846,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
@@ -7322,7 +7877,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -7335,7 +7890,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -7368,7 +7923,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>67</v>
@@ -7377,7 +7932,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
@@ -7416,7 +7971,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>79</v>
@@ -7458,7 +8013,7 @@
         <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>82</v>
@@ -7471,16 +8026,16 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>85</v>
@@ -7655,15 +8210,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
@@ -7683,7 +8238,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7698,40 +8253,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" t="s">
         <v>328</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" t="s">
         <v>326</v>
-      </c>
-      <c r="C1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7750,16 +8305,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
         <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -7767,16 +8322,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
         <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7784,16 +8339,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
         <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -7801,16 +8356,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
         <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7818,16 +8373,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
         <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -7835,16 +8390,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
         <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7852,16 +8407,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" t="s">
         <v>341</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7869,16 +8424,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7886,16 +8441,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
         <v>343</v>
       </c>
-      <c r="C11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" t="s">
-        <v>348</v>
-      </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7903,16 +8458,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
         <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A517841-B6E3-6B41-866A-7D70FC8DFA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F166D36-0EB4-CE4C-9825-77B09292C2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="492">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1920,6 +1920,54 @@
   </si>
   <si>
     <t>make out times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy 외장하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임트랙 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeTrackFailed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeTracked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">design ui </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>design gui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal ttkmw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research gui component</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2043,66 +2091,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2208,9 +2196,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2223,6 +2208,69 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2345,7 +2393,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23060E20-678A-D44B-8FB2-EFDDABA060DE}" name="표2" displayName="표2" ref="A1:S21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23060E20-678A-D44B-8FB2-EFDDABA060DE}" name="표2" displayName="표2" ref="A1:S21" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:S21" xr:uid="{33C0A7DA-87DE-9D46-8CF3-490BDD3DB9AA}">
     <filterColumn colId="18">
       <filters>
@@ -2359,64 +2407,64 @@
     <sortCondition descending="1" ref="B1:B6"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="7" xr3:uid="{57387478-1350-F842-813B-2BF2F5B23DE6}" name="Date" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{B5429F5E-7022-6D4A-A37D-1C28F1EA521E}" name="IsUrgent" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{827872FC-9F4C-2A43-9A78-046958637972}" name="User Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{AFC37644-4350-EF4D-B8E6-CEFA4188367B}" name="Account Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E0AA2CCD-768C-934C-9316-FE07D5F09949}" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B4DF4052-E5AF-0942-B2D1-DFD1CA0CADA0}" name="Description" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{33D258E7-6C53-E940-BF85-F73D8C2A070C}" name="ImportanceLevel" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{3FBE3180-15AA-2445-972B-27900647C121}" name="TriggeredBy" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{75D8B0AD-0A67-1B4C-A1DC-EEB05726F3F7}" name="DifficultyLevel" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{46B51654-E8F2-2048-88CD-1CAE3461E804}" name="크기(규모)에 따른 분류" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{DD553DA3-7F96-0B4A-8F72-5F6A507AD6D9}" name="Field(분야)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3F37B9A6-A5EB-274F-B764-E89336FF0A73}" name="분류 - Category?" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{88C14E53-7F6A-5A47-B3BD-15394F3C30FA}" name="IsBottleNeck" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{03BE0425-38AA-5345-A1CF-62786F9A9B7D}" name="HasBottleNeckOnStart only for this task" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A560DC71-99DF-DF45-BF3B-2EF731E77420}" name="BottleNeckOnStart" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{F0EBB895-B0CC-474F-9A08-BF7E5086DC86}" name="BottleNeckOnGing" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{66A3169B-8CF1-934F-8931-282AD2BEB321}" name="CanIncreaseWorkEfficiency" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{2D11400B-8B5E-A247-82F0-CB8EFE2FCCDC}" name="?(아직 이름을 못정함)" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{0F71AF5F-61E0-B949-9259-B1A35556FD39}" name="Status" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{57387478-1350-F842-813B-2BF2F5B23DE6}" name="Date" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{B5429F5E-7022-6D4A-A37D-1C28F1EA521E}" name="IsUrgent" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{827872FC-9F4C-2A43-9A78-046958637972}" name="User Name" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{AFC37644-4350-EF4D-B8E6-CEFA4188367B}" name="Account Name" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{E0AA2CCD-768C-934C-9316-FE07D5F09949}" name="Name" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{B4DF4052-E5AF-0942-B2D1-DFD1CA0CADA0}" name="Description" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{33D258E7-6C53-E940-BF85-F73D8C2A070C}" name="ImportanceLevel" dataDxfId="57"/>
+    <tableColumn id="23" xr3:uid="{3FBE3180-15AA-2445-972B-27900647C121}" name="TriggeredBy" dataDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{75D8B0AD-0A67-1B4C-A1DC-EEB05726F3F7}" name="DifficultyLevel" dataDxfId="55"/>
+    <tableColumn id="18" xr3:uid="{46B51654-E8F2-2048-88CD-1CAE3461E804}" name="크기(규모)에 따른 분류" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{DD553DA3-7F96-0B4A-8F72-5F6A507AD6D9}" name="Field(분야)" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{3F37B9A6-A5EB-274F-B764-E89336FF0A73}" name="분류 - Category?" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{88C14E53-7F6A-5A47-B3BD-15394F3C30FA}" name="IsBottleNeck" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{03BE0425-38AA-5345-A1CF-62786F9A9B7D}" name="HasBottleNeckOnStart only for this task" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{A560DC71-99DF-DF45-BF3B-2EF731E77420}" name="BottleNeckOnStart" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{F0EBB895-B0CC-474F-9A08-BF7E5086DC86}" name="BottleNeckOnGing" dataDxfId="48"/>
+    <tableColumn id="19" xr3:uid="{66A3169B-8CF1-934F-8931-282AD2BEB321}" name="CanIncreaseWorkEfficiency" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{2D11400B-8B5E-A247-82F0-CB8EFE2FCCDC}" name="?(아직 이름을 못정함)" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{0F71AF5F-61E0-B949-9259-B1A35556FD39}" name="Status" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:W68" totalsRowShown="0" dataDxfId="65">
-  <autoFilter ref="A3:W68" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:W76" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="A3:W76" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Account Name" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="57"/>
-    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Character Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="2"/>
     <tableColumn id="24" xr3:uid="{5896052E-6D0F-7A43-9144-A18A3CF6BD48}" name="ActualTimeCategory" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="54"/>
-    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="53"/>
-    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="51"/>
-    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="50"/>
-    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="31"/>
+    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:R16" xr:uid="{34963C48-FACA-F84A-8A57-EB8B000E2FB1}">
     <filterColumn colId="1">
       <filters>
@@ -2431,24 +2479,24 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2469,7 +2517,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5BF5D8DA-BB9C-8E4F-9728-B5B3C50983BC}" name="표5" displayName="표5" ref="A1:L17" totalsRowShown="0">
   <autoFilter ref="A1:L17" xr:uid="{8C4E2D83-616C-424E-8DE5-B4AEF9BC6EA6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4271BE0E-3D4C-6149-B2C4-C681DA278899}" name="CharacterName"/>
     <tableColumn id="3" xr3:uid="{3618F7AD-B21D-0641-AFC6-F2E6ABDD3261}" name="UserName(추후 UserName으로 변경 필요)"/>
     <tableColumn id="13" xr3:uid="{0CADD70A-516C-8D49-A872-A367F77ADC07}" name="HighLevelJob"/>
@@ -4013,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W68"/>
+  <dimension ref="A3:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4038,6 +4086,8 @@
     <col min="18" max="18" width="46" customWidth="1"/>
     <col min="19" max="19" width="24.28515625" customWidth="1"/>
     <col min="20" max="20" width="36.7109375" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="189" customHeight="1">
@@ -4057,7 +4107,7 @@
         <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
         <v>138</v>
@@ -4160,7 +4210,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="76">
+    <row r="5" spans="1:23" ht="57">
       <c r="A5" s="4">
         <v>44348</v>
       </c>
@@ -4207,7 +4257,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="76">
+    <row r="6" spans="1:23" ht="57">
       <c r="A6" s="4">
         <v>44348</v>
       </c>
@@ -4303,7 +4353,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="76">
+    <row r="8" spans="1:23" ht="57">
       <c r="A8" s="4">
         <v>44348</v>
       </c>
@@ -4350,7 +4400,7 @@
       </c>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="76">
+    <row r="9" spans="1:23" ht="57">
       <c r="A9" s="4">
         <v>44348</v>
       </c>
@@ -4397,7 +4447,7 @@
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="76">
+    <row r="10" spans="1:23" ht="57">
       <c r="A10" s="4">
         <v>44348</v>
       </c>
@@ -4493,7 +4543,7 @@
       </c>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="76">
+    <row r="12" spans="1:23" ht="57">
       <c r="A12" s="4">
         <v>44348</v>
       </c>
@@ -4581,7 +4631,7 @@
       </c>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="76">
+    <row r="14" spans="1:23" ht="57">
       <c r="A14" s="4">
         <v>44349</v>
       </c>
@@ -4630,7 +4680,7 @@
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="76">
+    <row r="15" spans="1:23" ht="57">
       <c r="A15" s="4">
         <v>44349</v>
       </c>
@@ -4726,7 +4776,7 @@
       </c>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" ht="76">
+    <row r="17" spans="1:23" ht="57">
       <c r="A17" s="2" t="s">
         <v>217</v>
       </c>
@@ -4773,7 +4823,7 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="76">
+    <row r="18" spans="1:23" ht="57">
       <c r="A18" s="4">
         <v>44349</v>
       </c>
@@ -4822,7 +4872,7 @@
       </c>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" ht="76">
+    <row r="19" spans="1:23" ht="57">
       <c r="A19" s="4">
         <v>44349</v>
       </c>
@@ -4871,7 +4921,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="76">
+    <row r="20" spans="1:23" ht="57">
       <c r="A20" s="4">
         <v>44349</v>
       </c>
@@ -4920,7 +4970,7 @@
       </c>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="76">
+    <row r="21" spans="1:23" ht="57">
       <c r="A21" s="4">
         <v>44349</v>
       </c>
@@ -5018,7 +5068,7 @@
       </c>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="76">
+    <row r="23" spans="1:23" ht="57">
       <c r="A23" s="4">
         <v>44349</v>
       </c>
@@ -5139,7 +5189,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="76">
+    <row r="26" spans="1:23" ht="57">
       <c r="A26" s="4">
         <v>44350</v>
       </c>
@@ -5235,7 +5285,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="76">
+    <row r="28" spans="1:23" ht="57">
       <c r="A28" s="4">
         <v>44350</v>
       </c>
@@ -5284,7 +5334,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="76">
+    <row r="29" spans="1:23" ht="57">
       <c r="A29" s="4">
         <v>44350</v>
       </c>
@@ -5333,7 +5383,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" ht="76">
+    <row r="30" spans="1:23" ht="57">
       <c r="A30" s="4">
         <v>44350</v>
       </c>
@@ -5382,7 +5432,7 @@
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="76">
+    <row r="31" spans="1:23" ht="57">
       <c r="A31" s="4">
         <v>44350</v>
       </c>
@@ -5480,7 +5530,7 @@
       </c>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="76">
+    <row r="33" spans="1:23" ht="57">
       <c r="A33" s="4">
         <v>44350</v>
       </c>
@@ -5529,7 +5579,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="76">
+    <row r="34" spans="1:23" ht="57">
       <c r="A34" s="4">
         <v>44350</v>
       </c>
@@ -5578,7 +5628,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="76">
+    <row r="35" spans="1:23" ht="57">
       <c r="A35" s="4">
         <v>44350</v>
       </c>
@@ -5627,7 +5677,7 @@
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="76">
+    <row r="36" spans="1:23" ht="57">
       <c r="A36" s="4">
         <v>44350</v>
       </c>
@@ -5676,7 +5726,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="76">
+    <row r="37" spans="1:23" ht="57">
       <c r="A37" s="4">
         <v>44350</v>
       </c>
@@ -5723,7 +5773,7 @@
       </c>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="76">
+    <row r="38" spans="1:23" ht="57">
       <c r="A38" s="4">
         <v>44350</v>
       </c>
@@ -5774,7 +5824,7 @@
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="76">
+    <row r="39" spans="1:23" ht="57">
       <c r="A39" s="4">
         <v>44350</v>
       </c>
@@ -5821,7 +5871,7 @@
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="76">
+    <row r="40" spans="1:23" ht="57">
       <c r="A40" s="4">
         <v>44350</v>
       </c>
@@ -5870,7 +5920,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="76">
+    <row r="41" spans="1:23" ht="57">
       <c r="A41" s="4">
         <v>44350</v>
       </c>
@@ -5917,7 +5967,7 @@
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="76">
+    <row r="42" spans="1:23" ht="57">
       <c r="A42" s="4">
         <v>44350</v>
       </c>
@@ -5966,7 +6016,7 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="171">
+    <row r="43" spans="1:23" ht="95">
       <c r="A43" s="4">
         <v>44351</v>
       </c>
@@ -6070,7 +6120,7 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="266">
+    <row r="45" spans="1:23" ht="152">
       <c r="A45" s="4">
         <v>44351</v>
       </c>
@@ -6361,7 +6411,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="114">
+    <row r="52" spans="1:23" ht="95">
       <c r="A52" s="4">
         <v>44351</v>
       </c>
@@ -6481,7 +6531,7 @@
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="57">
+    <row r="54" spans="1:23" ht="38">
       <c r="A54" s="4">
         <v>44351</v>
       </c>
@@ -6605,7 +6655,7 @@
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="171">
+    <row r="56" spans="1:23" ht="76">
       <c r="A56" s="4">
         <v>44351</v>
       </c>
@@ -7001,7 +7051,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="76">
+    <row r="62" spans="1:23" ht="57">
       <c r="A62" s="4">
         <v>44379</v>
       </c>
@@ -7373,7 +7423,9 @@
       <c r="C68" s="4">
         <v>44379</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="10">
+        <v>0.76874999999999993</v>
+      </c>
       <c r="E68" s="10" t="s">
         <v>164</v>
       </c>
@@ -7399,6 +7451,383 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="1:23" ht="19">
+      <c r="A69" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="1:23" ht="38">
+      <c r="A70" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="57">
+      <c r="A71" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P71" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="19">
+      <c r="A72" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B72" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="1:23" ht="19">
+      <c r="A73" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B73" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="1:23" ht="19">
+      <c r="A74" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B74" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C74" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="1:23" ht="19">
+      <c r="A75" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B75" s="10">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C75" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="1:23" ht="19">
+      <c r="A76" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B76" s="10">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C76" s="4">
+        <v>44380</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F166D36-0EB4-CE4C-9825-77B09292C2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB667693-D904-944B-9744-FA20B0303EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
   <sheets>
     <sheet name="todo list(day)" sheetId="2" r:id="rId1"/>
@@ -2833,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE457DB-F3F7-A040-8FE3-49840E1A123B}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
   <dimension ref="A3:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A63" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB667693-D904-944B-9744-FA20B0303EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5315907D-4E71-044F-87B9-54916D562569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16040" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
   <sheets>
     <sheet name="todo list(day)" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="499">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1968,6 +1968,37 @@
   </si>
   <si>
     <t>research gui component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop gui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘하긴했는데, 시간 투자 양이 별로. 중간에 넘 많이쉰듯.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table을 동적으로 만드는것이 어려움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskStarted,
+TaskStopped,
+TimeTracked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeTracked
+역시 로그가 중요함. TimeTracked돼밨자 TaskFinished가 중요한 사람한테는 별거아님.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make out fl, battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,7 +2066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,12 +2106,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="66">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2149,72 +2249,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2432,39 +2466,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:W76" totalsRowShown="0" dataDxfId="44">
-  <autoFilter ref="A3:W76" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:W78" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A3:W78" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Character Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{5896052E-6D0F-7A43-9144-A18A3CF6BD48}" name="ActualTimeCategory" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="31"/>
-    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Character Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{5896052E-6D0F-7A43-9144-A18A3CF6BD48}" name="ActualTimeCategory" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:R16" xr:uid="{34963C48-FACA-F84A-8A57-EB8B000E2FB1}">
     <filterColumn colId="1">
       <filters>
@@ -2479,24 +2513,24 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="42"/>
+    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2517,7 +2551,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5BF5D8DA-BB9C-8E4F-9728-B5B3C50983BC}" name="표5" displayName="표5" ref="A1:L17" totalsRowShown="0">
   <autoFilter ref="A1:L17" xr:uid="{8C4E2D83-616C-424E-8DE5-B4AEF9BC6EA6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{4271BE0E-3D4C-6149-B2C4-C681DA278899}" name="CharacterName"/>
     <tableColumn id="3" xr3:uid="{3618F7AD-B21D-0641-AFC6-F2E6ABDD3261}" name="UserName(추후 UserName으로 변경 필요)"/>
     <tableColumn id="13" xr3:uid="{0CADD70A-516C-8D49-A872-A367F77ADC07}" name="HighLevelJob"/>
@@ -2833,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE457DB-F3F7-A040-8FE3-49840E1A123B}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4061,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W76"/>
+  <dimension ref="A3:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="G71" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7586,7 +7620,7 @@
         <v>143</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>400</v>
+        <v>122</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>484</v>
@@ -7791,7 +7825,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="19">
+    <row r="76" spans="1:23" ht="171">
       <c r="A76" s="4">
         <v>44380</v>
       </c>
@@ -7801,6 +7835,9 @@
       <c r="C76" s="4">
         <v>44380</v>
       </c>
+      <c r="D76" s="13">
+        <v>0.73749999999999993</v>
+      </c>
       <c r="E76" s="10" t="s">
         <v>164</v>
       </c>
@@ -7813,21 +7850,125 @@
       <c r="H76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="I76" t="s">
+        <v>122</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+      <c r="P76" s="2">
+        <v>8</v>
+      </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
+      <c r="S76" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
+      <c r="V76" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="19">
+      <c r="A77" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B77" s="10">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="C77" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="1:23" ht="19">
+      <c r="A78" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B78" s="10">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="C78" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5315907D-4E71-044F-87B9-54916D562569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E820C885-7E01-0342-8FD1-43968F4EC72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="508">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1999,6 +1999,42 @@
   </si>
   <si>
     <t>make out fl, battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make musics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash, stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest, Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash, strech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impl table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14;23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest, Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study and impl table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2466,8 +2502,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A3:W78" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A3:W78" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W86" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A5:W86" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="21"/>
@@ -4095,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W78"/>
+  <dimension ref="A3:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G71" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="C77" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4124,213 +4160,120 @@
     <col min="22" max="22" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" ht="189" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" ht="189" customHeight="1"/>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
         <v>315</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>129</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>316</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>486</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>138</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>211</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I5" t="s">
         <v>477</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
         <v>139</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" t="s">
         <v>212</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
         <v>470</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M5" t="s">
         <v>359</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N5" t="s">
         <v>402</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O5" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S5" t="s">
         <v>132</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T5" t="s">
         <v>355</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V5" t="s">
         <v>404</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="171">
-      <c r="A4" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="57">
-      <c r="A5" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0.6118055555555556</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="57">
+    <row r="6" spans="1:23" ht="171">
       <c r="A6" s="4">
         <v>44348</v>
       </c>
       <c r="B6" s="10">
-        <v>0.62986111111111109</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>126</v>
+        <v>81</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
@@ -4338,16 +4281,16 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="95">
+    <row r="7" spans="1:23" ht="57">
       <c r="A7" s="4">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B7" s="10">
-        <v>0.66666666666666663</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10">
-        <v>0.68541666666666667</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>164</v>
@@ -4356,17 +4299,17 @@
         <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -4378,12 +4321,10 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W7" s="2"/>
     </row>
@@ -4392,11 +4333,11 @@
         <v>44348</v>
       </c>
       <c r="B8" s="10">
-        <v>0.6875</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>164</v>
@@ -4404,18 +4345,18 @@
       <c r="F8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>151</v>
+      <c r="G8" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4434,16 +4375,16 @@
       </c>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="57">
+    <row r="9" spans="1:23" ht="95">
       <c r="A9" s="4">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B9" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10">
-        <v>0.77083333333333337</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>164</v>
@@ -4452,32 +4393,34 @@
         <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W9" s="2"/>
     </row>
@@ -4486,11 +4429,11 @@
         <v>44348</v>
       </c>
       <c r="B10" s="10">
-        <v>0.77083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
-        <v>0.85416666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>164</v>
@@ -4499,28 +4442,28 @@
         <v>115</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
@@ -4528,52 +4471,50 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="76">
+    <row r="11" spans="1:23" ht="57">
       <c r="A11" s="4">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B11" s="10">
-        <v>0.84722222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
-        <v>0.8930555555555556</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W11" s="2"/>
     </row>
@@ -4582,11 +4523,11 @@
         <v>44348</v>
       </c>
       <c r="B12" s="10">
-        <v>0.8930555555555556</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
-        <v>0.92083333333333339</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>164</v>
@@ -4595,28 +4536,28 @@
         <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>166</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
@@ -4624,40 +4565,48 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="19">
+    <row r="13" spans="1:23" ht="76">
       <c r="A13" s="4">
         <v>44349</v>
       </c>
       <c r="B13" s="10">
-        <v>0.92083333333333339</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="10">
+        <v>0.8930555555555556</v>
+      </c>
       <c r="E13" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>165</v>
+      <c r="F13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2">
+        <v>9</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
@@ -4667,14 +4616,14 @@
     </row>
     <row r="14" spans="1:23" ht="57">
       <c r="A14" s="4">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B14" s="10">
-        <v>0.50277777777777777</v>
+        <v>0.8930555555555556</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
-        <v>0.5444444444444444</v>
+        <v>0.92083333333333339</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>164</v>
@@ -4683,30 +4632,28 @@
         <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
@@ -4714,63 +4661,57 @@
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="57">
+    <row r="15" spans="1:23" ht="19">
       <c r="A15" s="4">
         <v>44349</v>
       </c>
       <c r="B15" s="10">
-        <v>0.54791666666666672</v>
+        <v>0.92083333333333339</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10">
-        <v>0.55486111111111114</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10</v>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2">
-        <v>10</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="38">
+    <row r="16" spans="1:23" ht="57">
       <c r="A16" s="4">
         <v>44349</v>
       </c>
       <c r="B16" s="10">
-        <v>0.55555555555555558</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
-        <v>0.65694444444444444</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>164</v>
@@ -4779,17 +4720,17 @@
         <v>115</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -4801,25 +4742,25 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" ht="57">
-      <c r="A17" s="2" t="s">
-        <v>217</v>
+      <c r="A17" s="4">
+        <v>44349</v>
       </c>
       <c r="B17" s="10">
-        <v>0.66319444444444442</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
-        <v>0.67013888888888884</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>164</v>
@@ -4828,14 +4769,14 @@
         <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>145</v>
@@ -4857,16 +4798,16 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="57">
+    <row r="18" spans="1:23" ht="38">
       <c r="A18" s="4">
         <v>44349</v>
       </c>
       <c r="B18" s="10">
-        <v>0.67569444444444438</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.65694444444444444</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>164</v>
@@ -4875,17 +4816,17 @@
         <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -4897,57 +4838,55 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" ht="57">
-      <c r="A19" s="4">
-        <v>44349</v>
+      <c r="A19" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B19" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
-        <v>0.77569444444444446</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
@@ -4960,42 +4899,42 @@
         <v>44349</v>
       </c>
       <c r="B20" s="10">
-        <v>0.78472222222222221</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10">
-        <v>0.80555555555555547</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -5008,43 +4947,43 @@
       <c r="A21" s="4">
         <v>44349</v>
       </c>
-      <c r="B21" s="2">
-        <v>19.21</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="B21" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="10">
-        <v>0.82708333333333339</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -5053,16 +4992,16 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="76">
+    <row r="22" spans="1:23" ht="57">
       <c r="A22" s="4">
         <v>44349</v>
       </c>
       <c r="B22" s="10">
-        <v>0.82777777777777783</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10">
-        <v>0.84375</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>164</v>
@@ -5071,29 +5010,29 @@
         <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -5106,42 +5045,44 @@
       <c r="A23" s="4">
         <v>44349</v>
       </c>
-      <c r="B23" s="10">
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="C23" s="10"/>
+      <c r="B23" s="2">
+        <v>19.21</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="10">
-        <v>0.85486111111111107</v>
+        <v>0.82708333333333339</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2" t="s">
@@ -5149,16 +5090,16 @@
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="19">
+    <row r="24" spans="1:23" ht="76">
       <c r="A24" s="4">
         <v>44349</v>
       </c>
       <c r="B24" s="10">
-        <v>0.85555555555555562</v>
+        <v>0.82777777777777783</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10">
-        <v>0.89166666666666661</v>
+        <v>0.84375</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>164</v>
@@ -5167,156 +5108,156 @@
         <v>81</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+    <row r="25" spans="1:23" ht="57">
+      <c r="A25" s="4">
+        <v>44349</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <v>0.85486111111111107</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2">
+        <v>10</v>
+      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="V25" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="57">
+    <row r="26" spans="1:23" ht="19">
       <c r="A26" s="4">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B26" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10">
-        <v>0.56944444444444442</v>
+        <v>0.89166666666666661</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="95">
-      <c r="A27" s="4">
-        <v>44350</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>243</v>
-      </c>
+    <row r="27" spans="1:23">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2">
-        <v>8</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" ht="57">
@@ -5324,11 +5265,11 @@
         <v>44350</v>
       </c>
       <c r="B28" s="10">
-        <v>0.57638888888888895</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
-        <v>0.60416666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>164</v>
@@ -5340,7 +5281,7 @@
         <v>239</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
@@ -5358,9 +5299,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
@@ -5368,16 +5307,16 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="57">
+    <row r="29" spans="1:23" ht="95">
       <c r="A29" s="4">
         <v>44350</v>
       </c>
       <c r="B29" s="10">
-        <v>0.60416666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10">
-        <v>0.6166666666666667</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>164</v>
@@ -5386,29 +5325,29 @@
         <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" t="s">
-        <v>249</v>
+      <c r="S29" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -5422,11 +5361,11 @@
         <v>44350</v>
       </c>
       <c r="B30" s="10">
-        <v>0.61805555555555558</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10">
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>164</v>
@@ -5435,29 +5374,29 @@
         <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -5471,11 +5410,11 @@
         <v>44350</v>
       </c>
       <c r="B31" s="10">
-        <v>0.29166666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>164</v>
@@ -5484,29 +5423,29 @@
         <v>115</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2" t="s">
-        <v>253</v>
+      <c r="S31" t="s">
+        <v>249</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -5515,16 +5454,16 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" ht="76">
+    <row r="32" spans="1:23" ht="57">
       <c r="A32" s="4">
         <v>44350</v>
       </c>
       <c r="B32" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>164</v>
@@ -5533,29 +5472,29 @@
         <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -5569,11 +5508,11 @@
         <v>44350</v>
       </c>
       <c r="B33" s="10">
-        <v>0.62569444444444444</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
-        <v>0.63888888888888895</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>164</v>
@@ -5582,29 +5521,29 @@
         <v>115</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -5613,16 +5552,16 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="57">
+    <row r="34" spans="1:23" ht="76">
       <c r="A34" s="4">
         <v>44350</v>
       </c>
       <c r="B34" s="10">
-        <v>0.63888888888888895</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
-        <v>0.66111111111111109</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>164</v>
@@ -5631,17 +5570,17 @@
         <v>115</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -5653,7 +5592,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -5667,11 +5606,11 @@
         <v>44350</v>
       </c>
       <c r="B35" s="10">
-        <v>0.66111111111111109</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <v>0.6875</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>164</v>
@@ -5683,26 +5622,26 @@
         <v>239</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
         <v>239</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -5716,30 +5655,30 @@
         <v>44350</v>
       </c>
       <c r="B36" s="10">
-        <v>0.6875</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
-        <v>0.69444444444444453</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" t="s">
-        <v>298</v>
+        <v>115</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -5751,7 +5690,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -5765,41 +5704,43 @@
         <v>44350</v>
       </c>
       <c r="B37" s="10">
-        <v>0.69444444444444453</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
-        <v>0.72083333333333333</v>
+        <v>0.6875</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="S37" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2" t="s">
@@ -5812,13 +5753,11 @@
         <v>44350</v>
       </c>
       <c r="B38" s="10">
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="C38" s="4">
-        <v>44350</v>
-      </c>
+        <v>0.6875</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <v>0.84027777777777779</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>164</v>
@@ -5834,22 +5773,22 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -5863,31 +5802,31 @@
         <v>44350</v>
       </c>
       <c r="B39" s="10">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="C39" s="4">
-        <v>44350</v>
-      </c>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <v>0.84930555555555554</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5910,43 +5849,45 @@
         <v>44350</v>
       </c>
       <c r="B40" s="10">
-        <v>0.84930555555555554</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="C40" s="4">
         <v>44350</v>
       </c>
       <c r="D40" s="10">
-        <v>0.9375</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>310</v>
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>298</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="S40" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
@@ -5959,13 +5900,13 @@
         <v>44350</v>
       </c>
       <c r="B41" s="10">
-        <v>0.9604166666666667</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="C41" s="4">
         <v>44350</v>
       </c>
       <c r="D41" s="10">
-        <v>3.888888888888889E-2</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>164</v>
@@ -5974,14 +5915,14 @@
         <v>307</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -5989,7 +5930,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -6006,13 +5947,13 @@
         <v>44350</v>
       </c>
       <c r="B42" s="10">
-        <v>0.9375</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="C42" s="4">
         <v>44350</v>
       </c>
       <c r="D42" s="10">
-        <v>0.9604166666666667</v>
+        <v>0.9375</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>164</v>
@@ -6021,17 +5962,17 @@
         <v>115</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -6050,71 +5991,65 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="95">
+    <row r="43" spans="1:23" ht="57">
       <c r="A43" s="4">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B43" s="10">
-        <v>4.0972222222222222E-2</v>
+        <v>0.9604166666666667</v>
       </c>
       <c r="C43" s="4">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="D43" s="10">
-        <v>0.20972222222222223</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="U43" s="2"/>
       <c r="V43" s="2" t="s">
         <v>347</v>
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="95">
+    <row r="44" spans="1:23" ht="57">
       <c r="A44" s="4">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B44" s="10">
-        <v>0.49791666666666662</v>
+        <v>0.9375</v>
       </c>
       <c r="C44" s="4">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="D44" s="10">
-        <v>0.51388888888888895</v>
+        <v>0.9604166666666667</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>164</v>
@@ -6123,30 +6058,28 @@
         <v>115</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
@@ -6154,18 +6087,18 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="152">
+    <row r="45" spans="1:23" ht="95">
       <c r="A45" s="4">
         <v>44351</v>
       </c>
       <c r="B45" s="10">
-        <v>0.51388888888888895</v>
+        <v>4.0972222222222222E-2</v>
       </c>
       <c r="C45" s="4">
         <v>44351</v>
       </c>
       <c r="D45" s="10">
-        <v>0.53611111111111109</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>164</v>
@@ -6174,53 +6107,51 @@
         <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="19">
+    <row r="46" spans="1:23" ht="95">
       <c r="A46" s="4">
         <v>44351</v>
       </c>
       <c r="B46" s="10">
-        <v>0.20972222222222223</v>
+        <v>0.49791666666666662</v>
       </c>
       <c r="C46" s="4">
         <v>44351</v>
       </c>
       <c r="D46" s="10">
-        <v>0.29305555555555557</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>164</v>
@@ -6229,41 +6160,49 @@
         <v>115</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="P46" s="2">
+        <v>9</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="S46" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="V46" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="19">
+    <row r="47" spans="1:23" ht="152">
       <c r="A47" s="4">
         <v>44351</v>
       </c>
       <c r="B47" s="10">
-        <v>0.29305555555555557</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C47" s="4">
         <v>44351</v>
       </c>
       <c r="D47" s="10">
-        <v>0.31388888888888888</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>164</v>
@@ -6272,23 +6211,39 @@
         <v>115</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="P47" s="2">
+        <v>3</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
+      <c r="S47" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
+      <c r="U47" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:23" ht="112" customHeight="1">
@@ -6296,13 +6251,13 @@
         <v>44351</v>
       </c>
       <c r="B48" s="10">
-        <v>0.31388888888888888</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="C48" s="4">
         <v>44351</v>
       </c>
       <c r="D48" s="10">
-        <v>0.375</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>164</v>
@@ -6313,13 +6268,15 @@
       <c r="G48" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6337,13 +6294,13 @@
         <v>44351</v>
       </c>
       <c r="B49" s="10">
-        <v>0.375</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="C49" s="4">
         <v>44351</v>
       </c>
       <c r="D49" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>164</v>
@@ -6352,7 +6309,7 @@
         <v>115</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -6376,24 +6333,30 @@
         <v>44351</v>
       </c>
       <c r="B50" s="10">
-        <v>0.41666666666666669</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="C50" s="4">
         <v>44351</v>
       </c>
       <c r="D50" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+        <v>0.375</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G50" s="2" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6411,13 +6374,13 @@
         <v>44351</v>
       </c>
       <c r="B51" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C51" s="4">
         <v>44351</v>
       </c>
       <c r="D51" s="10">
-        <v>0.99791666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>164</v>
@@ -6426,7 +6389,7 @@
         <v>115</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -6445,331 +6408,273 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="95">
+    <row r="52" spans="1:23" ht="19">
       <c r="A52" s="4">
         <v>44351</v>
       </c>
       <c r="B52" s="10">
-        <v>0.5395833333333333</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C52" s="4">
         <v>44351</v>
       </c>
       <c r="D52" s="10">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>307</v>
-      </c>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>345</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="P52" s="2">
-        <v>10</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="133">
+    <row r="53" spans="1:23" ht="19">
       <c r="A53" s="4">
         <v>44351</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>374</v>
+      <c r="B53" s="10">
+        <v>0.45833333333333331</v>
       </c>
       <c r="C53" s="4">
         <v>44351</v>
       </c>
       <c r="D53" s="10">
-        <v>0.63680555555555551</v>
+        <v>0.99791666666666667</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>166</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P53" s="2">
-        <v>10</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>378</v>
-      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="38">
+    <row r="54" spans="1:23" ht="95">
       <c r="A54" s="4">
         <v>44351</v>
       </c>
       <c r="B54" s="10">
-        <v>0.60138888888888886</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="C54" s="4">
         <v>44351</v>
       </c>
       <c r="D54" s="10">
-        <v>0.63680555555555551</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="P54" s="2">
         <v>10</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="S54" s="2"/>
       <c r="T54" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="95">
+    <row r="55" spans="1:23" ht="133">
       <c r="A55" s="4">
         <v>44351</v>
       </c>
-      <c r="B55" s="10">
-        <v>0.57013888888888886</v>
+      <c r="B55" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="C55" s="4">
         <v>44351</v>
       </c>
       <c r="D55" s="10">
-        <v>0.60138888888888886</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>243</v>
+        <v>370</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>382</v>
+        <v>163</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>384</v>
+        <v>166</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="P55" s="2">
         <v>10</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>378</v>
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="76">
+    <row r="56" spans="1:23" ht="38">
       <c r="A56" s="4">
         <v>44351</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>412</v>
+      <c r="B56" s="10">
+        <v>0.60138888888888886</v>
       </c>
       <c r="C56" s="4">
         <v>44351</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>412</v>
+      <c r="D56" s="10">
+        <v>0.63680555555555551</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>411</v>
+        <v>239</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>411</v>
+        <v>163</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>413</v>
+        <v>123</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>415</v>
+        <v>166</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="P56" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>380</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>380</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="38">
+        <v>378</v>
+      </c>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" ht="95">
       <c r="A57" s="4">
         <v>44351</v>
       </c>
       <c r="B57" s="10">
-        <v>0.65138888888888891</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="C57" s="4">
         <v>44351</v>
       </c>
       <c r="D57" s="10">
-        <v>0.68611111111111101</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>164</v>
@@ -6778,46 +6683,46 @@
         <v>307</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>390</v>
+        <v>243</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="R57" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="S57" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="W57" s="2"/>
     </row>
@@ -6825,142 +6730,146 @@
       <c r="A58" s="4">
         <v>44351</v>
       </c>
-      <c r="B58" s="10">
-        <v>0.6875</v>
+      <c r="B58" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="C58" s="4">
         <v>44351</v>
       </c>
-      <c r="D58" s="10">
-        <v>0.91666666666666663</v>
+      <c r="D58" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>143</v>
+        <v>411</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="P58" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="R58" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="V58" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="57">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="38">
       <c r="A59" s="4">
-        <v>44378</v>
+        <v>44351</v>
       </c>
       <c r="B59" s="10">
-        <v>0.79999999999999993</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="C59" s="4">
-        <v>44378</v>
+        <v>44351</v>
       </c>
       <c r="D59" s="10">
-        <v>0.9375</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>298</v>
+        <v>307</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="P59" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>380</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="R59" s="2"/>
       <c r="S59" s="2" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="U59" s="2"/>
+      <c r="U59" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="V59" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="W59" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="38">
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="1:23" ht="76">
       <c r="A60" s="4">
-        <v>44378</v>
+        <v>44351</v>
       </c>
       <c r="B60" s="10">
-        <v>0.9375</v>
+        <v>0.6875</v>
       </c>
       <c r="C60" s="4">
-        <v>44378</v>
+        <v>44351</v>
       </c>
       <c r="D60" s="10">
-        <v>0.96597222222222223</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>164</v>
@@ -6969,7 +6878,7 @@
         <v>365</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>143</v>
@@ -6978,41 +6887,33 @@
         <v>400</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>441</v>
+        <v>160</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="P60" s="2">
         <v>10</v>
       </c>
-      <c r="Q60" s="2" t="s">
-        <v>444</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U60" t="s">
-        <v>440</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
       <c r="V60" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="W60" s="2" t="s">
         <v>431</v>
@@ -7023,80 +6924,80 @@
         <v>44378</v>
       </c>
       <c r="B61" s="10">
-        <v>0.9770833333333333</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="C61" s="4">
-        <v>44379</v>
-      </c>
-      <c r="D61" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>44378</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.9375</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>447</v>
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>298</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>400</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>441</v>
+        <v>299</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="P61" s="2">
         <v>8</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="R61" s="2" t="s">
         <v>380</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="U61" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="57">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="38">
       <c r="A62" s="4">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B62" s="10">
-        <v>0.49583333333333335</v>
+        <v>0.9375</v>
       </c>
       <c r="C62" s="4">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="D62" s="10">
-        <v>0.54722222222222217</v>
+        <v>0.96597222222222223</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>164</v>
@@ -7105,97 +7006,101 @@
         <v>365</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>143</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>122</v>
+        <v>400</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="N62" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="P62" s="2">
         <v>10</v>
       </c>
-      <c r="Q62" s="2"/>
+      <c r="Q62" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="R62" s="2" t="s">
         <v>380</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="U62" s="2" t="s">
-        <v>380</v>
+      <c r="U62" t="s">
+        <v>440</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="19">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="57">
       <c r="A63" s="4">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B63" s="10">
-        <v>0.54722222222222217</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="C63" s="4">
         <v>44379</v>
       </c>
-      <c r="D63" s="10">
-        <v>0.5625</v>
+      <c r="D63" s="11">
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>224</v>
+        <v>447</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="P63" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
@@ -7211,52 +7116,58 @@
         <v>380</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W63" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="19">
+    <row r="64" spans="1:23" ht="57">
       <c r="A64" s="4">
         <v>44379</v>
       </c>
       <c r="B64" s="10">
-        <v>0.5625</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C64" s="4">
         <v>44379</v>
       </c>
       <c r="D64" s="10">
-        <v>0.65416666666666667</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>122</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="P64" s="2">
         <v>10</v>
       </c>
@@ -7274,24 +7185,24 @@
         <v>380</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="38">
+    <row r="65" spans="1:23" ht="19">
       <c r="A65" s="4">
         <v>44379</v>
       </c>
       <c r="B65" s="10">
-        <v>0.65416666666666667</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="C65" s="4">
         <v>44379</v>
       </c>
       <c r="D65" s="10">
-        <v>0.6875</v>
+        <v>0.5625</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>164</v>
@@ -7300,22 +7211,22 @@
         <v>365</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>239</v>
+        <v>474</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7348,13 +7259,13 @@
         <v>44379</v>
       </c>
       <c r="B66" s="10">
-        <v>0.6875</v>
+        <v>0.5625</v>
       </c>
       <c r="C66" s="4">
         <v>44379</v>
       </c>
       <c r="D66" s="10">
-        <v>0.71666666666666667</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>164</v>
@@ -7366,7 +7277,7 @@
         <v>471</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>122</v>
@@ -7375,16 +7286,14 @@
         <v>471</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>476</v>
+        <v>156</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>122</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="2" t="s">
-        <v>478</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2">
         <v>10</v>
       </c>
@@ -7408,18 +7317,18 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="19">
+    <row r="67" spans="1:23" ht="38">
       <c r="A67" s="4">
         <v>44379</v>
       </c>
       <c r="B67" s="10">
-        <v>0.71666666666666667</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="C67" s="4">
         <v>44379</v>
       </c>
       <c r="D67" s="10">
-        <v>0.72499999999999998</v>
+        <v>0.6875</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>164</v>
@@ -7428,76 +7337,126 @@
         <v>365</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
+      <c r="P67" s="2">
+        <v>10</v>
+      </c>
       <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
+      <c r="R67" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="68" spans="1:23" ht="19">
       <c r="A68" s="4">
         <v>44379</v>
       </c>
       <c r="B68" s="10">
-        <v>0.72499999999999998</v>
+        <v>0.6875</v>
       </c>
       <c r="C68" s="4">
         <v>44379</v>
       </c>
       <c r="D68" s="10">
-        <v>0.76874999999999993</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
+      <c r="O68" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="P68" s="2">
+        <v>10</v>
+      </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
+      <c r="R68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="69" spans="1:23" ht="19">
       <c r="A69" s="4">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B69" s="10">
-        <v>0.76874999999999993</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C69" s="4">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="D69" s="10">
-        <v>0.81041666666666667</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>164</v>
@@ -7506,7 +7465,7 @@
         <v>365</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -7525,18 +7484,18 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="38">
+    <row r="70" spans="1:23" ht="19">
       <c r="A70" s="4">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B70" s="10">
-        <v>0.80833333333333324</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C70" s="4">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="D70" s="10">
-        <v>0.93402777777777779</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>164</v>
@@ -7545,132 +7504,76 @@
         <v>365</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P70" s="2">
-        <v>0</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="57">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="1:23" ht="19">
       <c r="A71" s="4">
         <v>44380</v>
       </c>
       <c r="B71" s="10">
-        <v>0.93402777777777779</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="C71" s="4">
         <v>44380</v>
       </c>
       <c r="D71" s="10">
-        <v>0.97569444444444453</v>
+        <v>0.81041666666666667</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P71" s="2">
-        <v>9</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-      <c r="T71" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-      <c r="V71" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="19">
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="1:23" ht="38">
       <c r="A72" s="4">
         <v>44380</v>
       </c>
       <c r="B72" s="10">
-        <v>0.45833333333333331</v>
+        <v>0.80833333333333324</v>
       </c>
       <c r="C72" s="4">
         <v>44380</v>
       </c>
       <c r="D72" s="10">
-        <v>0.5</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>164</v>
@@ -7679,101 +7582,147 @@
         <v>365</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-    </row>
-    <row r="73" spans="1:23" ht="19">
+      <c r="R72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="57">
       <c r="A73" s="4">
         <v>44380</v>
       </c>
       <c r="B73" s="10">
-        <v>0.5</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="C73" s="4">
         <v>44380</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>487</v>
+      <c r="D73" s="10">
+        <v>0.97569444444444453</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P73" s="2">
+        <v>9</v>
+      </c>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="R73" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
+      <c r="T73" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
+      <c r="V73" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="74" spans="1:23" ht="19">
       <c r="A74" s="4">
         <v>44380</v>
       </c>
       <c r="B74" s="10">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C74" s="4">
         <v>44380</v>
       </c>
       <c r="D74" s="10">
-        <v>0.58124999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -7791,13 +7740,13 @@
         <v>44380</v>
       </c>
       <c r="B75" s="10">
-        <v>0.58124999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="C75" s="4">
         <v>44380</v>
       </c>
-      <c r="D75" s="10">
-        <v>0.58680555555555558</v>
+      <c r="D75" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>164</v>
@@ -7806,7 +7755,7 @@
         <v>365</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>490</v>
+        <v>219</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -7825,18 +7774,18 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="171">
+    <row r="76" spans="1:23" ht="19">
       <c r="A76" s="4">
         <v>44380</v>
       </c>
       <c r="B76" s="10">
-        <v>0.58680555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C76" s="4">
         <v>44380</v>
       </c>
-      <c r="D76" s="13">
-        <v>0.73749999999999993</v>
+      <c r="D76" s="10">
+        <v>0.58124999999999993</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>164</v>
@@ -7845,55 +7794,47 @@
         <v>81</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="2" t="s">
         <v>122</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="L76" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2">
-        <v>8</v>
-      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>495</v>
-      </c>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>497</v>
-      </c>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
     </row>
     <row r="77" spans="1:23" ht="19">
       <c r="A77" s="4">
         <v>44380</v>
       </c>
       <c r="B77" s="10">
-        <v>0.73749999999999993</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="C77" s="4">
         <v>44380</v>
       </c>
       <c r="D77" s="10">
-        <v>0.87569444444444444</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>164</v>
@@ -7902,20 +7843,12 @@
         <v>365</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>299</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -7929,51 +7862,439 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="19">
+    <row r="78" spans="1:23" ht="171">
       <c r="A78" s="4">
         <v>44380</v>
       </c>
       <c r="B78" s="10">
-        <v>0.87777777777777777</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C78" s="4">
         <v>44380</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="13">
+        <v>0.73749999999999993</v>
+      </c>
       <c r="E78" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="I78" t="s">
+        <v>122</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+      <c r="P78" s="2">
+        <v>8</v>
+      </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
+      <c r="S78" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
+      <c r="V78" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="19">
+      <c r="A79" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B79" s="10">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="C79" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="1:23" ht="19">
+      <c r="A80" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B80" s="10">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44380</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="1:23" ht="19">
+      <c r="A81" s="4">
+        <v>44380</v>
+      </c>
+      <c r="B81" s="10">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D81" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>499</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="1:23" ht="19">
+      <c r="A82" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B82" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="1:23" ht="19">
+      <c r="A83" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B83" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C83" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="1:23" ht="19">
+      <c r="A84" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B84" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C84" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="1:23" ht="19">
+      <c r="A85" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B85" s="10">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C85" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="1:23" ht="19">
+      <c r="A86" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B86" s="10">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="C86" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{5F03BD2C-77A7-8E4B-8726-BED3D7474CB8}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{5F03BD2C-77A7-8E4B-8726-BED3D7474CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E820C885-7E01-0342-8FD1-43968F4EC72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD43959C-DE6F-3342-8666-68DBE93AE697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="511">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2035,6 +2035,18 @@
   </si>
   <si>
     <t>study and impl table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat and drink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2502,8 +2514,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W86" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A5:W86" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W89" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A5:W89" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="21"/>
@@ -4131,10 +4143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W86"/>
+  <dimension ref="A3:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C77" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="H78" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8290,6 +8302,150 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="1:23" ht="19">
+      <c r="A87" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B87" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C87" s="4">
+        <v>44381</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="1:23" ht="19">
+      <c r="A88" s="4">
+        <v>44381</v>
+      </c>
+      <c r="B88" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D88" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" spans="1:23" ht="19">
+      <c r="A89" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B89" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D89" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="H90" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD43959C-DE6F-3342-8666-68DBE93AE697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80E522-1CCC-D544-8931-488D5537EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="517">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2047,6 +2047,30 @@
   </si>
   <si>
     <t>develop table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수불가결한일(생활에)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research useRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat, stretch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2164,6 +2188,69 @@
   </cellStyles>
   <dxfs count="66">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2234,69 +2321,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2514,39 +2538,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W89" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A5:W89" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W93" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="A5:W93" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Character Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{5896052E-6D0F-7A43-9144-A18A3CF6BD48}" name="ActualTimeCategory" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{0F062D0C-5E3B-C84B-8DA7-518F3D7EC1DF}" name="End Date" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{3F982476-7EF2-9F42-8B00-B8ACA81E57B4}" name="End Time" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{1123AB49-7FA4-AB40-BDB1-A8764C6C514D}" name="User Name" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{EB40849B-C48D-744D-83AE-2F5A6F1F5DE6}" name="Character Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{08C66D1B-418E-C548-BCFB-FCF68DC7EEB1}" name="Expected Work" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{485A8DB6-6863-C64A-B768-7B52513301E0}" name="Expected Period" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{9481E569-F82D-A442-B453-18A9930BAA66}" name="ExpectedTimeCategory" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{5E1970AB-C596-1E4D-82CE-E33C0232F966}" name="Actual Work" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{745D474B-6A45-D64E-8A7C-7C610774C2B9}" name="Acutal Period" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{5896052E-6D0F-7A43-9144-A18A3CF6BD48}" name="ActualTimeCategory" dataDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{23B4672C-0E6F-A848-A316-34A65EB21736}" name="ContextChange" dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{00C950A3-1544-DB46-BD70-6CEC76FF03FE}" name="TriggerdBy" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{F9C48EEF-3DCC-9C48-A81C-F83DAC648C7A}" name="SuccessingWorkOn(Event)" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{FAED4A61-B3D9-9948-9723-E76502CC7320}" name="Self Feedback Number" dataDxfId="28"/>
+    <tableColumn id="23" xr3:uid="{84031E54-5B38-494E-8664-F0D7C2B7E9B8}" name="OrdinaryTask" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{1917C49F-3C4A-1945-9482-740910E4ADCA}" name="ShouldBeRespected(ShowedPerformance/WowPoint)" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{2562DADF-4F43-B64D-9648-CCFDCDCA42B8}" name="Self Feedback Text" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{76E0BAFE-9B5C-9948-BA57-9A5133BBB457}" name="BottleNeck Logs" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{8FA702C1-AAA9-B640-8588-9D6E8E8CA467}" name="UnExpectedAccident" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{1B632BF0-4E92-A944-94CB-E3F92EB9E963}" name="CurrentStatusLog" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{4CE2114E-17E5-8742-A40E-0B671990938E}" name="CurrentState" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A95934A-4676-184A-B51A-25898AFC5E88}" name="표1" displayName="표1" ref="A1:R16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:R16" xr:uid="{34963C48-FACA-F84A-8A57-EB8B000E2FB1}">
     <filterColumn colId="1">
       <filters>
@@ -2561,24 +2585,24 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{214A0061-A58C-6E4C-B71C-3157317845AD}" name="UserName" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{3733CDD9-E263-BB4D-AB2D-4C178F2E5D7B}" name="AccountName" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{2484F67B-9E19-8D41-8346-F07AC4B2E2D7}" name="Field" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{3D7161F5-C479-9341-92D6-2BA890743AEF}" name="Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{912B1E27-CDE1-F54C-8899-481BEAD30928}" name="Description" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E6DA5388-AE76-6845-9467-9E8F3B22483A}" name="Status" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{A55A41FA-67C5-A14D-90CB-902EBBA05A9A}" name="Log" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{8665A432-B8AE-B44D-80A5-AA70E58DA341}" name="Expected(Self) Period" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{04EA4EFC-DB57-584F-9A8A-C4F676B74BC9}" name="Actual Period" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{B2EE9D2A-607D-8447-BA53-336448744472}" name="Start Point" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{63A3887E-38C2-9048-AD89-4CBC0A4EA598}" name="Finish Point" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{3199EEFF-1145-934B-9428-17702C6B1730}" name="Evaluation(At First/At Last) - 첫인상, 끝인상" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{861140E7-F25F-8D44-A9C4-74BBBBF557CB}" name="Difficult Point" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{78CF7B16-7E80-6A4F-B5FD-6C87D2629269}" name="Importance Level of Difficult Point" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{3083314C-2CD9-4D4E-B2B5-9BCE138C72BE}" name="Feedback(Self)" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{C2CED142-8633-B544-A96E-965F00384CAC}" name="Feedback(From coworkers)" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E01D2F7C-C691-0148-A233-A995530E6E96}" name="What I Learned" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{54B1AF52-E622-104C-8F07-74A82E1F63C7}" name="Reference" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2599,7 +2623,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5BF5D8DA-BB9C-8E4F-9728-B5B3C50983BC}" name="표5" displayName="표5" ref="A1:L17" totalsRowShown="0">
   <autoFilter ref="A1:L17" xr:uid="{8C4E2D83-616C-424E-8DE5-B4AEF9BC6EA6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{48754164-EE3D-8042-8351-9E5BF04F3E92}" name="Name(추후 UUID 형식으로 변경 필요)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4271BE0E-3D4C-6149-B2C4-C681DA278899}" name="CharacterName"/>
     <tableColumn id="3" xr3:uid="{3618F7AD-B21D-0641-AFC6-F2E6ABDD3261}" name="UserName(추후 UserName으로 변경 필요)"/>
     <tableColumn id="13" xr3:uid="{0CADD70A-516C-8D49-A872-A367F77ADC07}" name="HighLevelJob"/>
@@ -4143,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W90"/>
+  <dimension ref="A3:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H78" zoomScale="116" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="G81" zoomScale="150" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="H89" activeCellId="1" sqref="H94 H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8444,8 +8468,177 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23">
-      <c r="H90" s="2"/>
+    <row r="90" spans="1:23" ht="19">
+      <c r="A90" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B90" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C90" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" spans="1:23" ht="19">
+      <c r="A91" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B91" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C91" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="1:23" ht="19">
+      <c r="A92" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B92" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C92" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="1:23" ht="19">
+      <c r="A93" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B93" s="10">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="C93" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/works.xlsx
+++ b/resources/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttkmw/beyond-eyesight/workasme/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80E522-1CCC-D544-8931-488D5537EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8C408-575B-A04D-AD57-B9040E6F1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{E31C5CC0-24F5-8942-ADB8-59899293243B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="519">
   <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,6 +2071,14 @@
   </si>
   <si>
     <t>eat, stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건부 렌더링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2538,8 +2546,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W93" totalsRowShown="0" dataDxfId="44">
-  <autoFilter ref="A5:W93" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F0613A8-F193-1746-9201-3E95CB31A162}" name="표3" displayName="표3" ref="A5:W95" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="A5:W95" xr:uid="{F235149E-6CF9-B843-8E05-1F129098F0AD}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{2FEBF9ED-D1F3-CE44-B1BE-684C1DD3520D}" name="Start Date" dataDxfId="43"/>
     <tableColumn id="5" xr3:uid="{FFB9D5D7-A599-E345-B389-F7191FE29828}" name="Start Time" dataDxfId="42"/>
@@ -4167,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18853549-B466-0346-BACD-864EAEBAA247}">
-  <dimension ref="A3:W93"/>
+  <dimension ref="A3:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G81" zoomScale="150" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="H89" activeCellId="1" sqref="H94 H89"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8611,7 +8619,9 @@
       <c r="C93" s="4">
         <v>44382</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="10">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E93" s="10" t="s">
         <v>164</v>
       </c>
@@ -8625,8 +8635,12 @@
         <v>299</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -8639,6 +8653,90 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="1:23" ht="19">
+      <c r="A94" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C94" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" spans="1:23" ht="19">
+      <c r="A95" s="4">
+        <v>44382</v>
+      </c>
+      <c r="B95" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C95" s="4">
+        <v>44382</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
